--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Vegfa-Kdr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Vegfa-Kdr.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.24959</v>
+        <v>6.3049255</v>
       </c>
       <c r="H2">
-        <v>4.49918</v>
+        <v>12.609851</v>
       </c>
       <c r="I2">
-        <v>0.0392017419201376</v>
+        <v>0.03649377841784593</v>
       </c>
       <c r="J2">
-        <v>0.02815879978891071</v>
+        <v>0.02546366648574191</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>143.0191385</v>
+        <v>127.8499795</v>
       </c>
       <c r="N2">
-        <v>286.038277</v>
+        <v>255.699959</v>
       </c>
       <c r="O2">
-        <v>0.5586909079605606</v>
+        <v>0.9566969901290183</v>
       </c>
       <c r="P2">
-        <v>0.4580112546679992</v>
+        <v>0.9375332254660301</v>
       </c>
       <c r="Q2">
-        <v>321.734423778215</v>
+        <v>806.0845959240271</v>
       </c>
       <c r="R2">
-        <v>1286.93769511286</v>
+        <v>3224.338383696108</v>
       </c>
       <c r="S2">
-        <v>0.02190165678699725</v>
+        <v>0.03491348797078853</v>
       </c>
       <c r="T2">
-        <v>0.01289704722126399</v>
+        <v>0.02387303337256887</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.24959</v>
+        <v>6.3049255</v>
       </c>
       <c r="H3">
-        <v>4.49918</v>
+        <v>12.609851</v>
       </c>
       <c r="I3">
-        <v>0.0392017419201376</v>
+        <v>0.03649377841784593</v>
       </c>
       <c r="J3">
-        <v>0.02815879978891071</v>
+        <v>0.02546366648574191</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -629,22 +629,22 @@
         <v>0.115296</v>
       </c>
       <c r="O3">
-        <v>0.0001501310188268283</v>
+        <v>0.0002875853314050663</v>
       </c>
       <c r="P3">
-        <v>0.000184614682244788</v>
+        <v>0.0004227369890322564</v>
       </c>
       <c r="Q3">
-        <v>0.08645624288000001</v>
+        <v>0.242310896816</v>
       </c>
       <c r="R3">
-        <v>0.51873745728</v>
+        <v>1.453865380896</v>
       </c>
       <c r="S3">
-        <v>5.885397454256642E-06</v>
+        <v>1.049507536051928E-05</v>
       </c>
       <c r="T3">
-        <v>5.198527875424353E-06</v>
+        <v>1.076443369990411E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.24959</v>
+        <v>6.3049255</v>
       </c>
       <c r="H4">
-        <v>4.49918</v>
+        <v>12.609851</v>
       </c>
       <c r="I4">
-        <v>0.0392017419201376</v>
+        <v>0.03649377841784593</v>
       </c>
       <c r="J4">
-        <v>0.02815879978891071</v>
+        <v>0.02546366648574191</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.167042333333333</v>
+        <v>1.934682666666667</v>
       </c>
       <c r="N4">
-        <v>9.501127</v>
+        <v>5.804048</v>
       </c>
       <c r="O4">
-        <v>0.01237175510436691</v>
+        <v>0.0144771637140136</v>
       </c>
       <c r="P4">
-        <v>0.015213429278313</v>
+        <v>0.02128075367505108</v>
       </c>
       <c r="Q4">
-        <v>7.124546762643333</v>
+        <v>12.19803007947466</v>
       </c>
       <c r="R4">
-        <v>42.74728057586</v>
+        <v>73.18818047684799</v>
       </c>
       <c r="S4">
-        <v>0.0004849943507005365</v>
+        <v>0.0005283264046980917</v>
       </c>
       <c r="T4">
-        <v>0.0004283919091507681</v>
+        <v>0.0005418860141467273</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.24959</v>
+        <v>6.3049255</v>
       </c>
       <c r="H5">
-        <v>4.49918</v>
+        <v>12.609851</v>
       </c>
       <c r="I5">
-        <v>0.0392017419201376</v>
+        <v>0.03649377841784593</v>
       </c>
       <c r="J5">
-        <v>0.02815879978891071</v>
+        <v>0.02546366648574191</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.427696</v>
+        <v>0.3236365</v>
       </c>
       <c r="N5">
-        <v>0.855392</v>
+        <v>0.647273</v>
       </c>
       <c r="O5">
-        <v>0.001670754481373834</v>
+        <v>0.002421760775064419</v>
       </c>
       <c r="P5">
-        <v>0.001369673902604892</v>
+        <v>0.002373250061596896</v>
       </c>
       <c r="Q5">
-        <v>0.96214064464</v>
+        <v>2.04050402158075</v>
       </c>
       <c r="R5">
-        <v>3.84856257856</v>
+        <v>8.162016086323</v>
       </c>
       <c r="S5">
-        <v>6.549648599073036E-05</v>
+        <v>8.837920110623171E-05</v>
       </c>
       <c r="T5">
-        <v>3.856837319954715E-05</v>
+        <v>6.043164805576981E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.24959</v>
+        <v>6.3049255</v>
       </c>
       <c r="H6">
-        <v>4.49918</v>
+        <v>12.609851</v>
       </c>
       <c r="I6">
-        <v>0.0392017419201376</v>
+        <v>0.03649377841784593</v>
       </c>
       <c r="J6">
-        <v>0.02815879978891071</v>
+        <v>0.02546366648574191</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>104.2068533333333</v>
+        <v>0.6086373333333334</v>
       </c>
       <c r="N6">
-        <v>312.62056</v>
+        <v>1.825912</v>
       </c>
       <c r="O6">
-        <v>0.4070743406450668</v>
+        <v>0.004554412188076668</v>
       </c>
       <c r="P6">
-        <v>0.5005754349464654</v>
+        <v>0.006694772941974269</v>
       </c>
       <c r="Q6">
-        <v>234.4226951901333</v>
+        <v>3.837413043185333</v>
       </c>
       <c r="R6">
-        <v>1406.5361711408</v>
+        <v>23.024478259112</v>
       </c>
       <c r="S6">
-        <v>0.01595802324427809</v>
+        <v>0.0001662077092152067</v>
       </c>
       <c r="T6">
-        <v>0.01409560345190442</v>
+        <v>0.000170473465392202</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.24959</v>
+        <v>6.3049255</v>
       </c>
       <c r="H7">
-        <v>4.49918</v>
+        <v>12.609851</v>
       </c>
       <c r="I7">
-        <v>0.0392017419201376</v>
+        <v>0.03649377841784593</v>
       </c>
       <c r="J7">
-        <v>0.02815879978891071</v>
+        <v>0.02546366648574191</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.130574666666667</v>
+        <v>2.881489666666667</v>
       </c>
       <c r="N7">
-        <v>15.391724</v>
+        <v>8.644468999999999</v>
       </c>
       <c r="O7">
-        <v>0.0200421107898049</v>
+        <v>0.02156208786242213</v>
       </c>
       <c r="P7">
-        <v>0.02464559252237265</v>
+        <v>0.03169526086631522</v>
       </c>
       <c r="Q7">
-        <v>11.54168946438667</v>
+        <v>18.16757767735317</v>
       </c>
       <c r="R7">
-        <v>69.25013678632</v>
+        <v>109.005466064119</v>
       </c>
       <c r="S7">
-        <v>0.0007856856547167368</v>
+        <v>0.0007868820566773584</v>
       </c>
       <c r="T7">
-        <v>0.0006939903055165663</v>
+        <v>0.0008070775518784381</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>54.548013</v>
       </c>
       <c r="I8">
-        <v>0.3168543494417961</v>
+        <v>0.1052438076419132</v>
       </c>
       <c r="J8">
-        <v>0.3413970049986661</v>
+        <v>0.110151373754687</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>143.0191385</v>
+        <v>127.8499795</v>
       </c>
       <c r="N8">
-        <v>286.038277</v>
+        <v>255.699959</v>
       </c>
       <c r="O8">
-        <v>0.5586909079605606</v>
+        <v>0.9566969901290183</v>
       </c>
       <c r="P8">
-        <v>0.4580112546679992</v>
+        <v>0.9375332254660301</v>
       </c>
       <c r="Q8">
-        <v>2600.469942048933</v>
+        <v>2324.654114605244</v>
       </c>
       <c r="R8">
-        <v>15602.8196522936</v>
+        <v>13947.92468763146</v>
       </c>
       <c r="S8">
-        <v>0.1770236441808898</v>
+        <v>0.1006864340007357</v>
       </c>
       <c r="T8">
-        <v>0.1563636705993363</v>
+        <v>0.103270572725746</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>54.548013</v>
       </c>
       <c r="I9">
-        <v>0.3168543494417961</v>
+        <v>0.1052438076419132</v>
       </c>
       <c r="J9">
-        <v>0.3413970049986661</v>
+        <v>0.110151373754687</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -1001,10 +1001,10 @@
         <v>0.115296</v>
       </c>
       <c r="O9">
-        <v>0.0001501310188268283</v>
+        <v>0.0002875853314050663</v>
       </c>
       <c r="P9">
-        <v>0.000184614682244788</v>
+        <v>0.0004227369890322564</v>
       </c>
       <c r="Q9">
         <v>0.698796411872</v>
@@ -1013,10 +1013,10 @@
         <v>6.289167706848</v>
       </c>
       <c r="S9">
-        <v>4.756966630140874E-05</v>
+        <v>3.026657529903065E-05</v>
       </c>
       <c r="T9">
-        <v>6.302689959715103E-05</v>
+        <v>4.656506007882311E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>54.548013</v>
       </c>
       <c r="I10">
-        <v>0.3168543494417961</v>
+        <v>0.1052438076419132</v>
       </c>
       <c r="J10">
-        <v>0.3413970049986661</v>
+        <v>0.110151373754687</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.167042333333333</v>
+        <v>1.934682666666667</v>
       </c>
       <c r="N10">
-        <v>9.501127</v>
+        <v>5.804048</v>
       </c>
       <c r="O10">
-        <v>0.01237175510436691</v>
+        <v>0.0144771637140136</v>
       </c>
       <c r="P10">
-        <v>0.015213429278313</v>
+        <v>0.02128075367505108</v>
       </c>
       <c r="Q10">
-        <v>57.58528879007233</v>
+        <v>35.17769841740266</v>
       </c>
       <c r="R10">
-        <v>518.267599110651</v>
+        <v>316.599285756624</v>
       </c>
       <c r="S10">
-        <v>0.003920044415047397</v>
+        <v>0.001523631833118133</v>
       </c>
       <c r="T10">
-        <v>0.005193819191375076</v>
+        <v>0.002344104251841982</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>54.548013</v>
       </c>
       <c r="I11">
-        <v>0.3168543494417961</v>
+        <v>0.1052438076419132</v>
       </c>
       <c r="J11">
-        <v>0.3413970049986661</v>
+        <v>0.110151373754687</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.427696</v>
+        <v>0.3236365</v>
       </c>
       <c r="N11">
-        <v>0.855392</v>
+        <v>0.647273</v>
       </c>
       <c r="O11">
-        <v>0.001670754481373834</v>
+        <v>0.002421760775064419</v>
       </c>
       <c r="P11">
-        <v>0.001369673902604892</v>
+        <v>0.002373250061596896</v>
       </c>
       <c r="Q11">
-        <v>7.776655656016</v>
+        <v>5.8845760030915</v>
       </c>
       <c r="R11">
-        <v>46.659933936096</v>
+        <v>35.307456018549</v>
       </c>
       <c r="S11">
-        <v>0.0005293858242726715</v>
+        <v>0.0002548753251656102</v>
       </c>
       <c r="T11">
-        <v>0.000467602568174145</v>
+        <v>0.0002614167545482937</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>54.548013</v>
       </c>
       <c r="I12">
-        <v>0.3168543494417961</v>
+        <v>0.1052438076419132</v>
       </c>
       <c r="J12">
-        <v>0.3413970049986661</v>
+        <v>0.110151373754687</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>104.2068533333333</v>
+        <v>0.6086373333333334</v>
       </c>
       <c r="N12">
-        <v>312.62056</v>
+        <v>1.825912</v>
       </c>
       <c r="O12">
-        <v>0.4070743406450668</v>
+        <v>0.004554412188076668</v>
       </c>
       <c r="P12">
-        <v>0.5005754349464654</v>
+        <v>0.006694772941974269</v>
       </c>
       <c r="Q12">
-        <v>1894.758930105254</v>
+        <v>11.06665239031733</v>
       </c>
       <c r="R12">
-        <v>17052.83037094728</v>
+        <v>99.599871512856</v>
       </c>
       <c r="S12">
-        <v>0.1289832753795408</v>
+        <v>0.0004793236802439256</v>
       </c>
       <c r="T12">
-        <v>0.1708949542666279</v>
+        <v>0.0007374384365341735</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>54.548013</v>
       </c>
       <c r="I13">
-        <v>0.3168543494417961</v>
+        <v>0.1052438076419132</v>
       </c>
       <c r="J13">
-        <v>0.3413970049986661</v>
+        <v>0.110151373754687</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.130574666666667</v>
+        <v>2.881489666666667</v>
       </c>
       <c r="N13">
-        <v>15.391724</v>
+        <v>8.644468999999999</v>
       </c>
       <c r="O13">
-        <v>0.0200421107898049</v>
+        <v>0.02156208786242213</v>
       </c>
       <c r="P13">
-        <v>0.02464559252237265</v>
+        <v>0.03169526086631522</v>
       </c>
       <c r="Q13">
-        <v>93.28755120493467</v>
+        <v>52.39317859889966</v>
       </c>
       <c r="R13">
-        <v>839.587960844412</v>
+        <v>471.5386073900969</v>
       </c>
       <c r="S13">
-        <v>0.006350429975744034</v>
+        <v>0.002269276227350785</v>
       </c>
       <c r="T13">
-        <v>0.008413931473555543</v>
+        <v>0.003491276525937794</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>14.63643766666667</v>
+        <v>23.56402866666666</v>
       </c>
       <c r="H14">
-        <v>43.909313</v>
+        <v>70.69208599999999</v>
       </c>
       <c r="I14">
-        <v>0.2550570779736964</v>
+        <v>0.1363918480548426</v>
       </c>
       <c r="J14">
-        <v>0.2748130889707934</v>
+        <v>0.142751861309494</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>143.0191385</v>
+        <v>127.8499795</v>
       </c>
       <c r="N14">
-        <v>286.038277</v>
+        <v>255.699959</v>
       </c>
       <c r="O14">
-        <v>0.5586909079605606</v>
+        <v>0.9566969901290183</v>
       </c>
       <c r="P14">
-        <v>0.4580112546679992</v>
+        <v>0.9375332254660301</v>
       </c>
       <c r="Q14">
-        <v>2093.290705795617</v>
+        <v>3012.660581970745</v>
       </c>
       <c r="R14">
-        <v>12559.7442347737</v>
+        <v>18075.96349182447</v>
       </c>
       <c r="S14">
-        <v>0.1424980704748919</v>
+        <v>0.1304856705122024</v>
       </c>
       <c r="T14">
-        <v>0.1258674876787016</v>
+        <v>0.1338346129747693</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>14.63643766666667</v>
+        <v>23.56402866666666</v>
       </c>
       <c r="H15">
-        <v>43.909313</v>
+        <v>70.69208599999999</v>
       </c>
       <c r="I15">
-        <v>0.2550570779736964</v>
+        <v>0.1363918480548426</v>
       </c>
       <c r="J15">
-        <v>0.2748130889707934</v>
+        <v>0.142751861309494</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1373,22 +1373,22 @@
         <v>0.115296</v>
       </c>
       <c r="O15">
-        <v>0.0001501310188268283</v>
+        <v>0.0002875853314050663</v>
       </c>
       <c r="P15">
-        <v>0.000184614682244788</v>
+        <v>0.0004227369890322564</v>
       </c>
       <c r="Q15">
-        <v>0.5625075724053333</v>
+        <v>0.9056127497173332</v>
       </c>
       <c r="R15">
-        <v>5.062568151648</v>
+        <v>8.150514747455999</v>
       </c>
       <c r="S15">
-        <v>3.829197897518483E-05</v>
+        <v>3.922429482380137E-05</v>
       </c>
       <c r="T15">
-        <v>5.073453109705166E-05</v>
+        <v>6.034649202872577E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>14.63643766666667</v>
+        <v>23.56402866666666</v>
       </c>
       <c r="H16">
-        <v>43.909313</v>
+        <v>70.69208599999999</v>
       </c>
       <c r="I16">
-        <v>0.2550570779736964</v>
+        <v>0.1363918480548426</v>
       </c>
       <c r="J16">
-        <v>0.2748130889707934</v>
+        <v>0.142751861309494</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.167042333333333</v>
+        <v>1.934682666666667</v>
       </c>
       <c r="N16">
-        <v>9.501127</v>
+        <v>5.804048</v>
       </c>
       <c r="O16">
-        <v>0.01237175510436691</v>
+        <v>0.0144771637140136</v>
       </c>
       <c r="P16">
-        <v>0.015213429278313</v>
+        <v>0.02128075367505108</v>
       </c>
       <c r="Q16">
-        <v>46.35421769952789</v>
+        <v>45.58891781823643</v>
       </c>
       <c r="R16">
-        <v>417.187959295751</v>
+        <v>410.300260364128</v>
       </c>
       <c r="S16">
-        <v>0.003155503706325986</v>
+        <v>0.001974567113546824</v>
       </c>
       <c r="T16">
-        <v>0.004180849493811903</v>
+        <v>0.003037867197182398</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>14.63643766666667</v>
+        <v>23.56402866666666</v>
       </c>
       <c r="H17">
-        <v>43.909313</v>
+        <v>70.69208599999999</v>
       </c>
       <c r="I17">
-        <v>0.2550570779736964</v>
+        <v>0.1363918480548426</v>
       </c>
       <c r="J17">
-        <v>0.2748130889707934</v>
+        <v>0.142751861309494</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.427696</v>
+        <v>0.3236365</v>
       </c>
       <c r="N17">
-        <v>0.855392</v>
+        <v>0.647273</v>
       </c>
       <c r="O17">
-        <v>0.001670754481373834</v>
+        <v>0.002421760775064419</v>
       </c>
       <c r="P17">
-        <v>0.001369673902604892</v>
+        <v>0.002373250061596896</v>
       </c>
       <c r="Q17">
-        <v>6.259945844282667</v>
+        <v>7.626179763579665</v>
       </c>
       <c r="R17">
-        <v>37.559675065696</v>
+        <v>45.75707858147799</v>
       </c>
       <c r="S17">
-        <v>0.0004261377560306685</v>
+        <v>0.0003303084276577642</v>
       </c>
       <c r="T17">
-        <v>0.0003764043160575321</v>
+        <v>0.0003387858636458283</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>14.63643766666667</v>
+        <v>23.56402866666666</v>
       </c>
       <c r="H18">
-        <v>43.909313</v>
+        <v>70.69208599999999</v>
       </c>
       <c r="I18">
-        <v>0.2550570779736964</v>
+        <v>0.1363918480548426</v>
       </c>
       <c r="J18">
-        <v>0.2748130889707934</v>
+        <v>0.142751861309494</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>104.2068533333333</v>
+        <v>0.6086373333333334</v>
       </c>
       <c r="N18">
-        <v>312.62056</v>
+        <v>1.825912</v>
       </c>
       <c r="O18">
-        <v>0.4070743406450668</v>
+        <v>0.004554412188076668</v>
       </c>
       <c r="P18">
-        <v>0.5005754349464654</v>
+        <v>0.006694772941974269</v>
       </c>
       <c r="Q18">
-        <v>1525.217113252809</v>
+        <v>14.34194757027022</v>
       </c>
       <c r="R18">
-        <v>13726.95401927528</v>
+        <v>129.077528132432</v>
       </c>
       <c r="S18">
-        <v>0.1038271918429998</v>
+        <v>0.0006211846951352763</v>
       </c>
       <c r="T18">
-        <v>0.1375646815405366</v>
+        <v>0.0009556912985112644</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>14.63643766666667</v>
+        <v>23.56402866666666</v>
       </c>
       <c r="H19">
-        <v>43.909313</v>
+        <v>70.69208599999999</v>
       </c>
       <c r="I19">
-        <v>0.2550570779736964</v>
+        <v>0.1363918480548426</v>
       </c>
       <c r="J19">
-        <v>0.2748130889707934</v>
+        <v>0.142751861309494</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.130574666666667</v>
+        <v>2.881489666666667</v>
       </c>
       <c r="N19">
-        <v>15.391724</v>
+        <v>8.644468999999999</v>
       </c>
       <c r="O19">
-        <v>0.0200421107898049</v>
+        <v>0.02156208786242213</v>
       </c>
       <c r="P19">
-        <v>0.02464559252237265</v>
+        <v>0.03169526086631522</v>
       </c>
       <c r="Q19">
-        <v>75.09333630284577</v>
+        <v>67.89950510803709</v>
       </c>
       <c r="R19">
-        <v>675.840026725612</v>
+        <v>611.0955459723339</v>
       </c>
       <c r="S19">
-        <v>0.005111882214472729</v>
+        <v>0.002940893011476646</v>
       </c>
       <c r="T19">
-        <v>0.006772931410588715</v>
+        <v>0.004524557483356465</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>10.126433</v>
+        <v>16.786919</v>
       </c>
       <c r="H20">
-        <v>20.252866</v>
+        <v>33.57383799999999</v>
       </c>
       <c r="I20">
-        <v>0.1764649616319261</v>
+        <v>0.09716500255305598</v>
       </c>
       <c r="J20">
-        <v>0.1267556307695262</v>
+        <v>0.06779723356591034</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>143.0191385</v>
+        <v>127.8499795</v>
       </c>
       <c r="N20">
-        <v>286.038277</v>
+        <v>255.699959</v>
       </c>
       <c r="O20">
-        <v>0.5586909079605606</v>
+        <v>0.9566969901290183</v>
       </c>
       <c r="P20">
-        <v>0.4580112546679992</v>
+        <v>0.9375332254660301</v>
       </c>
       <c r="Q20">
-        <v>1448.27372373797</v>
+        <v>2146.20725001816</v>
       </c>
       <c r="R20">
-        <v>5793.094894951882</v>
+        <v>8584.829000072639</v>
       </c>
       <c r="S20">
-        <v>0.09858936963736631</v>
+        <v>0.09295746548838703</v>
       </c>
       <c r="T20">
-        <v>0.05805550548498433</v>
+        <v>0.06356215906272172</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>10.126433</v>
+        <v>16.786919</v>
       </c>
       <c r="H21">
-        <v>20.252866</v>
+        <v>33.57383799999999</v>
       </c>
       <c r="I21">
-        <v>0.1764649616319261</v>
+        <v>0.09716500255305598</v>
       </c>
       <c r="J21">
-        <v>0.1267556307695262</v>
+        <v>0.06779723356591034</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -1745,22 +1745,22 @@
         <v>0.115296</v>
       </c>
       <c r="O21">
-        <v>0.0001501310188268283</v>
+        <v>0.0002875853314050663</v>
       </c>
       <c r="P21">
-        <v>0.000184614682244788</v>
+        <v>0.0004227369890322564</v>
       </c>
       <c r="Q21">
-        <v>0.389179073056</v>
+        <v>0.645154871008</v>
       </c>
       <c r="R21">
-        <v>2.335074438336</v>
+        <v>3.870929226047999</v>
       </c>
       <c r="S21">
-        <v>2.649286447703824E-05</v>
+        <v>2.794322946019472E-05</v>
       </c>
       <c r="T21">
-        <v>2.340095049725374E-05</v>
+        <v>2.866039838236957E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>10.126433</v>
+        <v>16.786919</v>
       </c>
       <c r="H22">
-        <v>20.252866</v>
+        <v>33.57383799999999</v>
       </c>
       <c r="I22">
-        <v>0.1764649616319261</v>
+        <v>0.09716500255305598</v>
       </c>
       <c r="J22">
-        <v>0.1267556307695262</v>
+        <v>0.06779723356591034</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.167042333333333</v>
+        <v>1.934682666666667</v>
       </c>
       <c r="N22">
-        <v>9.501127</v>
+        <v>5.804048</v>
       </c>
       <c r="O22">
-        <v>0.01237175510436691</v>
+        <v>0.0144771637140136</v>
       </c>
       <c r="P22">
-        <v>0.015213429278313</v>
+        <v>0.02128075367505108</v>
       </c>
       <c r="Q22">
-        <v>32.07084199666366</v>
+        <v>32.47736121603732</v>
       </c>
       <c r="R22">
-        <v>192.425051979982</v>
+        <v>194.864167296224</v>
       </c>
       <c r="S22">
-        <v>0.002183181289811693</v>
+        <v>0.001406673649233141</v>
       </c>
       <c r="T22">
-        <v>0.001928387824340142</v>
+        <v>0.001442776227366043</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>10.126433</v>
+        <v>16.786919</v>
       </c>
       <c r="H23">
-        <v>20.252866</v>
+        <v>33.57383799999999</v>
       </c>
       <c r="I23">
-        <v>0.1764649616319261</v>
+        <v>0.09716500255305598</v>
       </c>
       <c r="J23">
-        <v>0.1267556307695262</v>
+        <v>0.06779723356591034</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.427696</v>
+        <v>0.3236365</v>
       </c>
       <c r="N23">
-        <v>0.855392</v>
+        <v>0.647273</v>
       </c>
       <c r="O23">
-        <v>0.001670754481373834</v>
+        <v>0.002421760775064419</v>
       </c>
       <c r="P23">
-        <v>0.001369673902604892</v>
+        <v>0.002373250061596896</v>
       </c>
       <c r="Q23">
-        <v>4.331034888367999</v>
+        <v>5.432859710943499</v>
       </c>
       <c r="R23">
-        <v>17.324139553472</v>
+        <v>21.731438843774</v>
       </c>
       <c r="S23">
-        <v>0.0002948296254520022</v>
+        <v>0.0002353103918920251</v>
       </c>
       <c r="T23">
-        <v>0.0001736138794732417</v>
+        <v>0.0001608997887363959</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>10.126433</v>
+        <v>16.786919</v>
       </c>
       <c r="H24">
-        <v>20.252866</v>
+        <v>33.57383799999999</v>
       </c>
       <c r="I24">
-        <v>0.1764649616319261</v>
+        <v>0.09716500255305598</v>
       </c>
       <c r="J24">
-        <v>0.1267556307695262</v>
+        <v>0.06779723356591034</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>104.2068533333333</v>
+        <v>0.6086373333333334</v>
       </c>
       <c r="N24">
-        <v>312.62056</v>
+        <v>1.825912</v>
       </c>
       <c r="O24">
-        <v>0.4070743406450668</v>
+        <v>0.004554412188076668</v>
       </c>
       <c r="P24">
-        <v>0.5005754349464654</v>
+        <v>0.006694772941974269</v>
       </c>
       <c r="Q24">
-        <v>1055.243718420827</v>
+        <v>10.21714561504267</v>
       </c>
       <c r="R24">
-        <v>6331.462310524959</v>
+        <v>61.30287369025599</v>
       </c>
       <c r="S24">
-        <v>0.07183435790327335</v>
+        <v>0.0004425294718821387</v>
       </c>
       <c r="T24">
-        <v>0.06345075500436914</v>
+        <v>0.0004538870848177663</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>10.126433</v>
+        <v>16.786919</v>
       </c>
       <c r="H25">
-        <v>20.252866</v>
+        <v>33.57383799999999</v>
       </c>
       <c r="I25">
-        <v>0.1764649616319261</v>
+        <v>0.09716500255305598</v>
       </c>
       <c r="J25">
-        <v>0.1267556307695262</v>
+        <v>0.06779723356591034</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>5.130574666666667</v>
+        <v>2.881489666666667</v>
       </c>
       <c r="N25">
-        <v>15.391724</v>
+        <v>8.644468999999999</v>
       </c>
       <c r="O25">
-        <v>0.0200421107898049</v>
+        <v>0.02156208786242213</v>
       </c>
       <c r="P25">
-        <v>0.02464559252237265</v>
+        <v>0.03169526086631522</v>
       </c>
       <c r="Q25">
-        <v>51.95442061349733</v>
+        <v>48.37133363367033</v>
       </c>
       <c r="R25">
-        <v>311.726523680984</v>
+        <v>290.2280018020219</v>
       </c>
       <c r="S25">
-        <v>0.003536730311545734</v>
+        <v>0.002095080322201463</v>
       </c>
       <c r="T25">
-        <v>0.003123967625862063</v>
+        <v>0.002148851003886031</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.810577666666667</v>
+        <v>82.370743</v>
       </c>
       <c r="H26">
-        <v>5.431733</v>
+        <v>247.112229</v>
       </c>
       <c r="I26">
-        <v>0.03155143755752453</v>
+        <v>0.4767732216907772</v>
       </c>
       <c r="J26">
-        <v>0.03399532404878652</v>
+        <v>0.4990053715784811</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>143.0191385</v>
+        <v>127.8499795</v>
       </c>
       <c r="N26">
-        <v>286.038277</v>
+        <v>255.699959</v>
       </c>
       <c r="O26">
-        <v>0.5586909079605606</v>
+        <v>0.9566969901290183</v>
       </c>
       <c r="P26">
-        <v>0.4580112546679992</v>
+        <v>0.9375332254660301</v>
       </c>
       <c r="Q26">
-        <v>258.9472580740069</v>
+        <v>10531.09780394977</v>
       </c>
       <c r="R26">
-        <v>1553.683548444041</v>
+        <v>63186.58682369861</v>
       </c>
       <c r="S26">
-        <v>0.01762750129647431</v>
+        <v>0.4561275061656817</v>
       </c>
       <c r="T26">
-        <v>0.01557024102042992</v>
+        <v>0.4678341155408482</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>1.810577666666667</v>
+        <v>82.370743</v>
       </c>
       <c r="H27">
-        <v>5.431733</v>
+        <v>247.112229</v>
       </c>
       <c r="I27">
-        <v>0.03155143755752453</v>
+        <v>0.4767732216907772</v>
       </c>
       <c r="J27">
-        <v>0.03399532404878652</v>
+        <v>0.4990053715784811</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -2117,22 +2117,22 @@
         <v>0.115296</v>
       </c>
       <c r="O27">
-        <v>0.0001501310188268283</v>
+        <v>0.0002875853314050663</v>
       </c>
       <c r="P27">
-        <v>0.000184614682244788</v>
+        <v>0.0004227369890322564</v>
       </c>
       <c r="Q27">
-        <v>0.06958412088533335</v>
+        <v>3.165672394976</v>
       </c>
       <c r="R27">
-        <v>0.6262570879680001</v>
+        <v>28.491051554784</v>
       </c>
       <c r="S27">
-        <v>4.736849465962213E-06</v>
+        <v>0.0001371129849650033</v>
       </c>
       <c r="T27">
-        <v>6.276035947075323E-06</v>
+        <v>0.0002109480282920094</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>1.810577666666667</v>
+        <v>82.370743</v>
       </c>
       <c r="H28">
-        <v>5.431733</v>
+        <v>247.112229</v>
       </c>
       <c r="I28">
-        <v>0.03155143755752453</v>
+        <v>0.4767732216907772</v>
       </c>
       <c r="J28">
-        <v>0.03399532404878652</v>
+        <v>0.4990053715784811</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>3.167042333333333</v>
+        <v>1.934682666666667</v>
       </c>
       <c r="N28">
-        <v>9.501127</v>
+        <v>5.804048</v>
       </c>
       <c r="O28">
-        <v>0.01237175510436691</v>
+        <v>0.0144771637140136</v>
       </c>
       <c r="P28">
-        <v>0.015213429278313</v>
+        <v>0.02128075367505108</v>
       </c>
       <c r="Q28">
-        <v>5.734176118121223</v>
+        <v>159.3612487225547</v>
       </c>
       <c r="R28">
-        <v>51.60758506309101</v>
+        <v>1434.251238502992</v>
       </c>
       <c r="S28">
-        <v>0.0003903466586524178</v>
+        <v>0.006902323984875082</v>
       </c>
       <c r="T28">
-        <v>0.0005171854582095469</v>
+        <v>0.01061921039508899</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>1.810577666666667</v>
+        <v>82.370743</v>
       </c>
       <c r="H29">
-        <v>5.431733</v>
+        <v>247.112229</v>
       </c>
       <c r="I29">
-        <v>0.03155143755752453</v>
+        <v>0.4767732216907772</v>
       </c>
       <c r="J29">
-        <v>0.03399532404878652</v>
+        <v>0.4990053715784811</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.427696</v>
+        <v>0.3236365</v>
       </c>
       <c r="N29">
-        <v>0.855392</v>
+        <v>0.647273</v>
       </c>
       <c r="O29">
-        <v>0.001670754481373834</v>
+        <v>0.002421760775064419</v>
       </c>
       <c r="P29">
-        <v>0.001369673902604892</v>
+        <v>0.002373250061596896</v>
       </c>
       <c r="Q29">
-        <v>0.7743768257226668</v>
+        <v>26.6581789669195</v>
       </c>
       <c r="R29">
-        <v>4.646260954336</v>
+        <v>159.949073801517</v>
       </c>
       <c r="S29">
-        <v>5.271470569302079E-05</v>
+        <v>0.001154630686891816</v>
       </c>
       <c r="T29">
-        <v>4.656250816021939E-05</v>
+        <v>0.001184264528835812</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>1.810577666666667</v>
+        <v>82.370743</v>
       </c>
       <c r="H30">
-        <v>5.431733</v>
+        <v>247.112229</v>
       </c>
       <c r="I30">
-        <v>0.03155143755752453</v>
+        <v>0.4767732216907772</v>
       </c>
       <c r="J30">
-        <v>0.03399532404878652</v>
+        <v>0.4990053715784811</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>104.2068533333333</v>
+        <v>0.6086373333333334</v>
       </c>
       <c r="N30">
-        <v>312.62056</v>
+        <v>1.825912</v>
       </c>
       <c r="O30">
-        <v>0.4070743406450668</v>
+        <v>0.004554412188076668</v>
       </c>
       <c r="P30">
-        <v>0.5005754349464654</v>
+        <v>0.006694772941974269</v>
       </c>
       <c r="Q30">
-        <v>188.6746013589423</v>
+        <v>50.13390936420534</v>
       </c>
       <c r="R30">
-        <v>1698.07141223048</v>
+        <v>451.205184277848</v>
       </c>
       <c r="S30">
-        <v>0.01284378064013329</v>
+        <v>0.002171421771817055</v>
       </c>
       <c r="T30">
-        <v>0.01701722412186735</v>
+        <v>0.003340727659543431</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>1.810577666666667</v>
+        <v>82.370743</v>
       </c>
       <c r="H31">
-        <v>5.431733</v>
+        <v>247.112229</v>
       </c>
       <c r="I31">
-        <v>0.03155143755752453</v>
+        <v>0.4767732216907772</v>
       </c>
       <c r="J31">
-        <v>0.03399532404878652</v>
+        <v>0.4990053715784811</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>5.130574666666667</v>
+        <v>2.881489666666667</v>
       </c>
       <c r="N31">
-        <v>15.391724</v>
+        <v>8.644468999999999</v>
       </c>
       <c r="O31">
-        <v>0.0200421107898049</v>
+        <v>0.02156208786242213</v>
       </c>
       <c r="P31">
-        <v>0.02464559252237265</v>
+        <v>0.03169526086631522</v>
       </c>
       <c r="Q31">
-        <v>9.289303908632446</v>
+        <v>237.3504447901557</v>
       </c>
       <c r="R31">
-        <v>83.603735177692</v>
+        <v>2136.154003111401</v>
       </c>
       <c r="S31">
-        <v>0.0006323574071055179</v>
+        <v>0.0102802260965466</v>
       </c>
       <c r="T31">
-        <v>0.0008378349041724083</v>
+        <v>0.01581610542587252</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>10.37924066666667</v>
+        <v>25.55784666666667</v>
       </c>
       <c r="H32">
-        <v>31.137722</v>
+        <v>76.67354</v>
       </c>
       <c r="I32">
-        <v>0.1808704314749193</v>
+        <v>0.1479323416415651</v>
       </c>
       <c r="J32">
-        <v>0.1948801514233172</v>
+        <v>0.1548304933056855</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>143.0191385</v>
+        <v>127.8499795</v>
       </c>
       <c r="N32">
-        <v>286.038277</v>
+        <v>255.699959</v>
       </c>
       <c r="O32">
-        <v>0.5586909079605606</v>
+        <v>0.9566969901290183</v>
       </c>
       <c r="P32">
-        <v>0.4580112546679992</v>
+        <v>0.9375332254660301</v>
       </c>
       <c r="Q32">
-        <v>1484.430058430833</v>
+        <v>3267.570172397476</v>
       </c>
       <c r="R32">
-        <v>8906.580350584994</v>
+        <v>19605.42103438486</v>
       </c>
       <c r="S32">
-        <v>0.101050665583941</v>
+        <v>0.141526425991223</v>
       </c>
       <c r="T32">
-        <v>0.08925730266328322</v>
+        <v>0.145158731789376</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>10.37924066666667</v>
+        <v>25.55784666666667</v>
       </c>
       <c r="H33">
-        <v>31.137722</v>
+        <v>76.67354</v>
       </c>
       <c r="I33">
-        <v>0.1808704314749193</v>
+        <v>0.1479323416415651</v>
       </c>
       <c r="J33">
-        <v>0.1948801514233172</v>
+        <v>0.1548304933056855</v>
       </c>
       <c r="K33">
         <v>2</v>
@@ -2489,22 +2489,22 @@
         <v>0.115296</v>
       </c>
       <c r="O33">
-        <v>0.0001501310188268283</v>
+        <v>0.0002875853314050663</v>
       </c>
       <c r="P33">
-        <v>0.000184614682244788</v>
+        <v>0.0004227369890322564</v>
       </c>
       <c r="Q33">
-        <v>0.3988949773013334</v>
+        <v>0.9822391630933334</v>
       </c>
       <c r="R33">
-        <v>3.590054795712</v>
+        <v>8.840152467839999</v>
       </c>
       <c r="S33">
-        <v>2.715426215297767E-05</v>
+        <v>4.2543171496517E-05</v>
       </c>
       <c r="T33">
-        <v>3.597773723083187E-05</v>
+        <v>6.545257655042444E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>10.37924066666667</v>
+        <v>25.55784666666667</v>
       </c>
       <c r="H34">
-        <v>31.137722</v>
+        <v>76.67354</v>
       </c>
       <c r="I34">
-        <v>0.1808704314749193</v>
+        <v>0.1479323416415651</v>
       </c>
       <c r="J34">
-        <v>0.1948801514233172</v>
+        <v>0.1548304933056855</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>3.167042333333333</v>
+        <v>1.934682666666667</v>
       </c>
       <c r="N34">
-        <v>9.501127</v>
+        <v>5.804048</v>
       </c>
       <c r="O34">
-        <v>0.01237175510436691</v>
+        <v>0.0144771637140136</v>
       </c>
       <c r="P34">
-        <v>0.015213429278313</v>
+        <v>0.02128075367505108</v>
       </c>
       <c r="Q34">
-        <v>32.87149457918822</v>
+        <v>49.44632294332444</v>
       </c>
       <c r="R34">
-        <v>295.843451212694</v>
+        <v>445.01690648992</v>
       </c>
       <c r="S34">
-        <v>0.002237684683828877</v>
+        <v>0.00214164072854233</v>
       </c>
       <c r="T34">
-        <v>0.002964795401425565</v>
+        <v>0.00329490958942494</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>10.37924066666667</v>
+        <v>25.55784666666667</v>
       </c>
       <c r="H35">
-        <v>31.137722</v>
+        <v>76.67354</v>
       </c>
       <c r="I35">
-        <v>0.1808704314749193</v>
+        <v>0.1479323416415651</v>
       </c>
       <c r="J35">
-        <v>0.1948801514233172</v>
+        <v>0.1548304933056855</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.427696</v>
+        <v>0.3236365</v>
       </c>
       <c r="N35">
-        <v>0.855392</v>
+        <v>0.647273</v>
       </c>
       <c r="O35">
-        <v>0.001670754481373834</v>
+        <v>0.002421760775064419</v>
       </c>
       <c r="P35">
-        <v>0.001369673902604892</v>
+        <v>0.002373250061596896</v>
       </c>
       <c r="Q35">
-        <v>4.439159716170668</v>
+        <v>8.271452042736666</v>
       </c>
       <c r="R35">
-        <v>26.634958297024</v>
+        <v>49.62871225642</v>
       </c>
       <c r="S35">
-        <v>0.0003021900839347403</v>
+        <v>0.0003582567423509711</v>
       </c>
       <c r="T35">
-        <v>0.0002669222575402073</v>
+        <v>0.000367451477774796</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>10.37924066666667</v>
+        <v>25.55784666666667</v>
       </c>
       <c r="H36">
-        <v>31.137722</v>
+        <v>76.67354</v>
       </c>
       <c r="I36">
-        <v>0.1808704314749193</v>
+        <v>0.1479323416415651</v>
       </c>
       <c r="J36">
-        <v>0.1948801514233172</v>
+        <v>0.1548304933056855</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>104.2068533333333</v>
+        <v>0.6086373333333334</v>
       </c>
       <c r="N36">
-        <v>312.62056</v>
+        <v>1.825912</v>
       </c>
       <c r="O36">
-        <v>0.4070743406450668</v>
+        <v>0.004554412188076668</v>
       </c>
       <c r="P36">
-        <v>0.5005754349464654</v>
+        <v>0.006694772941974269</v>
       </c>
       <c r="Q36">
-        <v>1081.588009862702</v>
+        <v>15.55545964094222</v>
       </c>
       <c r="R36">
-        <v>9734.292088764321</v>
+        <v>139.99913676848</v>
       </c>
       <c r="S36">
-        <v>0.0736277116348415</v>
+        <v>0.0006737448597830657</v>
       </c>
       <c r="T36">
-        <v>0.09755221656116006</v>
+        <v>0.001036554997175432</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>10.37924066666667</v>
+        <v>25.55784666666667</v>
       </c>
       <c r="H37">
-        <v>31.137722</v>
+        <v>76.67354</v>
       </c>
       <c r="I37">
-        <v>0.1808704314749193</v>
+        <v>0.1479323416415651</v>
       </c>
       <c r="J37">
-        <v>0.1948801514233172</v>
+        <v>0.1548304933056855</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>5.130574666666667</v>
+        <v>2.881489666666667</v>
       </c>
       <c r="N37">
-        <v>15.391724</v>
+        <v>8.644468999999999</v>
       </c>
       <c r="O37">
-        <v>0.0200421107898049</v>
+        <v>0.02156208786242213</v>
       </c>
       <c r="P37">
-        <v>0.02464559252237265</v>
+        <v>0.03169526086631522</v>
       </c>
       <c r="Q37">
-        <v>53.25146922363646</v>
+        <v>73.6446710722511</v>
       </c>
       <c r="R37">
-        <v>479.2632230127281</v>
+        <v>662.80203965026</v>
       </c>
       <c r="S37">
-        <v>0.003625025226220147</v>
+        <v>0.003189730148169275</v>
       </c>
       <c r="T37">
-        <v>0.004802936802677357</v>
+        <v>0.004907392875383976</v>
       </c>
     </row>
   </sheetData>
